--- a/outputs-r202/f__UBA932.xlsx
+++ b/outputs-r202/f__UBA932.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,6 +700,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,6 +750,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -770,6 +800,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -815,6 +850,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -860,6 +900,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -905,6 +950,11 @@
           <t>g__UBA1232</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>g__UBA1232</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -950,6 +1000,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -995,6 +1050,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1040,6 +1100,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1085,6 +1150,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1130,6 +1200,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1175,6 +1250,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1220,6 +1300,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1265,6 +1350,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1310,6 +1400,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1355,6 +1450,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1400,6 +1500,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1445,6 +1550,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1490,6 +1600,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1535,6 +1650,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1580,6 +1700,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1625,6 +1750,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1670,6 +1800,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1715,6 +1850,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1760,6 +1900,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1805,6 +1950,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1850,6 +2000,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1895,6 +2050,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1940,6 +2100,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1985,6 +2150,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2030,6 +2200,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2075,6 +2250,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2120,6 +2300,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2165,6 +2350,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2210,6 +2400,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2255,6 +2450,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2300,6 +2500,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2345,6 +2550,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2390,6 +2600,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2435,6 +2650,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2480,6 +2700,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2525,6 +2750,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2570,6 +2800,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2615,6 +2850,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2660,6 +2900,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2705,6 +2950,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2750,6 +3000,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2795,6 +3050,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2840,6 +3100,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2885,6 +3150,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2930,6 +3200,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2975,6 +3250,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3020,6 +3300,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3065,6 +3350,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3110,6 +3400,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>g__RC9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3155,6 +3450,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3200,6 +3500,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3245,6 +3550,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3290,6 +3600,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3335,6 +3650,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -3380,6 +3700,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3425,6 +3750,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3470,6 +3800,11 @@
           <t>g__RC9</t>
         </is>
       </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3511,6 +3846,11 @@
         <v>0.9218595767543656</v>
       </c>
       <c r="M68" t="inlineStr">
+        <is>
+          <t>g__RC9</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>g__RC9</t>
         </is>

--- a/outputs-r202/f__UBA932.xlsx
+++ b/outputs-r202/f__UBA932.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,41 +1109,41 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG351.fasta</t>
+          <t>RUG352.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05708686674912753</v>
+        <v>1.31338087733268e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.541759074153669e-09</v>
+        <v>0.00788443382013216</v>
       </c>
       <c r="D14" t="n">
-        <v>4.002804764149652e-11</v>
+        <v>4.414421300040696e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>4.002804764149632e-11</v>
+        <v>4.414421300040646e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9429130912213157</v>
+        <v>0.9921136872424604</v>
       </c>
       <c r="G14" t="n">
-        <v>4.002804764149646e-11</v>
+        <v>4.104217006685934e-09</v>
       </c>
       <c r="H14" t="n">
-        <v>4.024762926681301e-08</v>
+        <v>5.614501059848038e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>4.002804764149646e-11</v>
+        <v>4.414421300039681e-13</v>
       </c>
       <c r="J14" t="n">
-        <v>4.002804764149644e-11</v>
+        <v>4.414421300039642e-13</v>
       </c>
       <c r="K14" t="n">
-        <v>4.002804764149656e-11</v>
+        <v>4.414421300039679e-13</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9429130912213157</v>
+        <v>0.9921136872424604</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1159,41 +1159,41 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG352.fasta</t>
+          <t>RUG386.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.31338087733268e-06</v>
+        <v>0.0002459101903851705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00788443382013216</v>
+        <v>3.462131781125661e-08</v>
       </c>
       <c r="D15" t="n">
-        <v>4.414421300040696e-13</v>
+        <v>3.396958521453522e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>4.414421300040646e-13</v>
+        <v>3.39695852145352e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9921136872424604</v>
+        <v>0.9710541461733443</v>
       </c>
       <c r="G15" t="n">
-        <v>4.104217006685934e-09</v>
+        <v>1.138924267428123e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>5.614501059848038e-07</v>
+        <v>0.02868851977210855</v>
       </c>
       <c r="I15" t="n">
-        <v>4.414421300039681e-13</v>
+        <v>3.396958521453399e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>4.414421300039642e-13</v>
+        <v>3.396958521453397e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>4.414421300039679e-13</v>
+        <v>3.396958521453402e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9921136872424604</v>
+        <v>0.9710541461733443</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1209,41 +1209,41 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG353.fasta</t>
+          <t>RUG387.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06253925383096955</v>
+        <v>0.000246893636183807</v>
       </c>
       <c r="C16" t="n">
-        <v>1.986644593946338e-09</v>
+        <v>0.3208790381706807</v>
       </c>
       <c r="D16" t="n">
-        <v>4.650041831228781e-11</v>
+        <v>2.213295613472211e-11</v>
       </c>
       <c r="E16" t="n">
-        <v>4.650041831228751e-11</v>
+        <v>2.213295613472208e-11</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9374606964785669</v>
+        <v>0.6662894430697907</v>
       </c>
       <c r="G16" t="n">
-        <v>4.650041831228785e-11</v>
+        <v>0.006986066048717945</v>
       </c>
       <c r="H16" t="n">
-        <v>4.742481649304234e-08</v>
+        <v>0.005598558963962297</v>
       </c>
       <c r="I16" t="n">
-        <v>4.650041831228779e-11</v>
+        <v>2.213295613472212e-11</v>
       </c>
       <c r="J16" t="n">
-        <v>4.650041831228777e-11</v>
+        <v>2.213295613472208e-11</v>
       </c>
       <c r="K16" t="n">
-        <v>4.650041831228783e-11</v>
+        <v>2.213295613472205e-11</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9374606964785669</v>
+        <v>0.6662894430697907</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1259,41 +1259,41 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG386.fasta</t>
+          <t>RUG388.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0002459101903851705</v>
+        <v>0.01042867738409707</v>
       </c>
       <c r="C17" t="n">
-        <v>3.462131781125661e-08</v>
+        <v>5.071175908425512e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>3.396958521453522e-14</v>
+        <v>3.196466822054556e-11</v>
       </c>
       <c r="E17" t="n">
-        <v>3.39695852145352e-14</v>
+        <v>3.196466822054543e-11</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9710541461733443</v>
+        <v>0.9625837453605258</v>
       </c>
       <c r="G17" t="n">
-        <v>1.138924267428123e-05</v>
+        <v>0.001087424280996977</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02868851977210855</v>
+        <v>0.02589508163864844</v>
       </c>
       <c r="I17" t="n">
-        <v>3.396958521453399e-14</v>
+        <v>3.196466822054545e-11</v>
       </c>
       <c r="J17" t="n">
-        <v>3.396958521453397e-14</v>
+        <v>3.196466822054534e-11</v>
       </c>
       <c r="K17" t="n">
-        <v>3.396958521453402e-14</v>
+        <v>3.196466822054542e-11</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9710541461733443</v>
+        <v>0.9625837453605258</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1309,41 +1309,41 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG387.fasta</t>
+          <t>RUG392.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000246893636183807</v>
+        <v>9.110164345025701e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3208790381706807</v>
+        <v>0.02678746753529947</v>
       </c>
       <c r="D18" t="n">
-        <v>2.213295613472211e-11</v>
+        <v>7.225461499000621e-13</v>
       </c>
       <c r="E18" t="n">
-        <v>2.213295613472208e-11</v>
+        <v>7.225461499000618e-13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6662894430697907</v>
+        <v>0.9505525355582813</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006986066048717945</v>
+        <v>0.02218631286939741</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005598558963962297</v>
+        <v>0.000382582389959023</v>
       </c>
       <c r="I18" t="n">
-        <v>2.213295613472212e-11</v>
+        <v>7.2254614990003e-13</v>
       </c>
       <c r="J18" t="n">
-        <v>2.213295613472208e-11</v>
+        <v>7.225461499000286e-13</v>
       </c>
       <c r="K18" t="n">
-        <v>2.213295613472205e-11</v>
+        <v>7.225461499000297e-13</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6662894430697907</v>
+        <v>0.9505525355582813</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1359,41 +1359,41 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG388.fasta</t>
+          <t>RUG395.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01042867738409707</v>
+        <v>0.0001501382373249305</v>
       </c>
       <c r="C19" t="n">
-        <v>5.071175908425512e-06</v>
+        <v>0.004451668612069339</v>
       </c>
       <c r="D19" t="n">
-        <v>3.196466822054556e-11</v>
+        <v>9.698362143439389e-12</v>
       </c>
       <c r="E19" t="n">
-        <v>3.196466822054543e-11</v>
+        <v>9.698362143439353e-12</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9625837453605258</v>
+        <v>0.9323456596893429</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001087424280996977</v>
+        <v>0.06079044745849763</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02589508163864844</v>
+        <v>0.002262085954273092</v>
       </c>
       <c r="I19" t="n">
-        <v>3.196466822054545e-11</v>
+        <v>9.698362143439371e-12</v>
       </c>
       <c r="J19" t="n">
-        <v>3.196466822054534e-11</v>
+        <v>9.69836214343936e-12</v>
       </c>
       <c r="K19" t="n">
-        <v>3.196466822054542e-11</v>
+        <v>9.698362143439373e-12</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9625837453605258</v>
+        <v>0.9323456596893429</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1409,41 +1409,41 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG392.fasta</t>
+          <t>RUG406.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.110164345025701e-05</v>
+        <v>0.0003616980032108303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02678746753529947</v>
+        <v>0.02250667797890588</v>
       </c>
       <c r="D20" t="n">
-        <v>7.225461499000621e-13</v>
+        <v>1.458773191969566e-11</v>
       </c>
       <c r="E20" t="n">
-        <v>7.225461499000618e-13</v>
+        <v>1.458773191969565e-11</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9505525355582813</v>
+        <v>0.7799999157648085</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02218631286939741</v>
+        <v>0.1806440626198009</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000382582389959023</v>
+        <v>0.01648764556033541</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2254614990003e-13</v>
+        <v>1.458773191969569e-11</v>
       </c>
       <c r="J20" t="n">
-        <v>7.225461499000286e-13</v>
+        <v>1.458773191969566e-11</v>
       </c>
       <c r="K20" t="n">
-        <v>7.225461499000297e-13</v>
+        <v>1.458773191969568e-11</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9505525355582813</v>
+        <v>0.7799999157648085</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1459,41 +1459,41 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG395.fasta</t>
+          <t>RUG421.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001501382373249305</v>
+        <v>8.09109777551127e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004451668612069339</v>
+        <v>0.02101166039766558</v>
       </c>
       <c r="D21" t="n">
-        <v>9.698362143439389e-12</v>
+        <v>6.055335225088739e-12</v>
       </c>
       <c r="E21" t="n">
-        <v>9.698362143439353e-12</v>
+        <v>6.055335225088731e-12</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9323456596893429</v>
+        <v>0.8239843051686434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06079044745849763</v>
+        <v>0.1506022268243626</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002262085954273092</v>
+        <v>0.004320896601296253</v>
       </c>
       <c r="I21" t="n">
-        <v>9.698362143439371e-12</v>
+        <v>6.055335225088736e-12</v>
       </c>
       <c r="J21" t="n">
-        <v>9.69836214343936e-12</v>
+        <v>6.055335225088729e-12</v>
       </c>
       <c r="K21" t="n">
-        <v>9.698362143439373e-12</v>
+        <v>6.055335225088735e-12</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9323456596893429</v>
+        <v>0.8239843051686434</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1509,41 +1509,41 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG406.fasta</t>
+          <t>RUG470.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003616980032108303</v>
+        <v>0.01371992162279544</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02250667797890588</v>
+        <v>0.064236708761576</v>
       </c>
       <c r="D22" t="n">
-        <v>1.458773191969566e-11</v>
+        <v>1.056238491566295e-09</v>
       </c>
       <c r="E22" t="n">
-        <v>1.458773191969565e-11</v>
+        <v>1.056238491566294e-09</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7799999157648085</v>
+        <v>0.8475072702960547</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1806440626198009</v>
+        <v>0.0020971499631891</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01648764556033541</v>
+        <v>0.07243894407519216</v>
       </c>
       <c r="I22" t="n">
-        <v>1.458773191969569e-11</v>
+        <v>1.056238491566256e-09</v>
       </c>
       <c r="J22" t="n">
-        <v>1.458773191969566e-11</v>
+        <v>1.056238491566254e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>1.458773191969568e-11</v>
+        <v>1.056238491566257e-09</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7799999157648085</v>
+        <v>0.8475072702960547</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1559,41 +1559,41 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG408.fasta</t>
+          <t>RUG478.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06168235859626314</v>
+        <v>7.693450476683306e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>4.204262196734024e-10</v>
+        <v>5.166332359529899e-09</v>
       </c>
       <c r="D23" t="n">
-        <v>2.892858772702144e-11</v>
+        <v>2.436485406932987e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>2.892858772702136e-11</v>
+        <v>2.436485406932963e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9383176261314633</v>
+        <v>0.9965836075742324</v>
       </c>
       <c r="G23" t="n">
-        <v>2.89285877270214e-11</v>
+        <v>0.002050858485170312</v>
       </c>
       <c r="H23" t="n">
-        <v>1.467827558600435e-08</v>
+        <v>0.00128859426828006</v>
       </c>
       <c r="I23" t="n">
-        <v>2.892858772702141e-11</v>
+        <v>2.436485406932447e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>2.892858772702136e-11</v>
+        <v>2.436485406932428e-13</v>
       </c>
       <c r="K23" t="n">
-        <v>2.892858772702138e-11</v>
+        <v>2.43648540693244e-13</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9383176261314633</v>
+        <v>0.9965836075742324</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1609,41 +1609,41 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG421.fasta</t>
+          <t>RUG481.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.09109777551127e-05</v>
+        <v>0.0002275849178927226</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02101166039766558</v>
+        <v>1.033682876905045e-08</v>
       </c>
       <c r="D24" t="n">
-        <v>6.055335225088739e-12</v>
+        <v>4.055812278098524e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>6.055335225088731e-12</v>
+        <v>4.055812278098519e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8239843051686434</v>
+        <v>0.9724949664714715</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1506022268243626</v>
+        <v>1.110529505405947e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004320896601296253</v>
+        <v>0.02726633297855019</v>
       </c>
       <c r="I24" t="n">
-        <v>6.055335225088736e-12</v>
+        <v>4.055812278098515e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>6.055335225088729e-12</v>
+        <v>4.055812278098509e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>6.055335225088735e-12</v>
+        <v>4.055812278098521e-14</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8239843051686434</v>
+        <v>0.9724949664714715</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1659,41 +1659,41 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG470.fasta</t>
+          <t>RUG487.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01371992162279544</v>
+        <v>2.190114654352425e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.064236708761576</v>
+        <v>0.001320880544698002</v>
       </c>
       <c r="D25" t="n">
-        <v>1.056238491566295e-09</v>
+        <v>1.433781044853697e-12</v>
       </c>
       <c r="E25" t="n">
-        <v>1.056238491566294e-09</v>
+        <v>1.433781044853693e-12</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8475072702960547</v>
+        <v>0.8406817706644435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0020971499631891</v>
+        <v>0.1564507075373984</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07243894407519216</v>
+        <v>0.0015247400997476</v>
       </c>
       <c r="I25" t="n">
-        <v>1.056238491566256e-09</v>
+        <v>1.433781044853693e-12</v>
       </c>
       <c r="J25" t="n">
-        <v>1.056238491566254e-09</v>
+        <v>1.433781044853693e-12</v>
       </c>
       <c r="K25" t="n">
-        <v>1.056238491566257e-09</v>
+        <v>1.433781044853692e-12</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8475072702960547</v>
+        <v>0.8406817706644435</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1709,41 +1709,41 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG478.fasta</t>
+          <t>RUG489.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.693450476683306e-05</v>
+        <v>0.07963367186759586</v>
       </c>
       <c r="C26" t="n">
-        <v>5.166332359529899e-09</v>
+        <v>0.000183594900928888</v>
       </c>
       <c r="D26" t="n">
-        <v>2.436485406932987e-13</v>
+        <v>8.195252635255699e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>2.436485406932963e-13</v>
+        <v>8.195252635255688e-11</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9965836075742324</v>
+        <v>0.68757369380851</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002050858485170312</v>
+        <v>0.02930781057996714</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00128859426828006</v>
+        <v>0.2033012284332355</v>
       </c>
       <c r="I26" t="n">
-        <v>2.436485406932447e-13</v>
+        <v>8.195252635255709e-11</v>
       </c>
       <c r="J26" t="n">
-        <v>2.436485406932428e-13</v>
+        <v>8.195252635255695e-11</v>
       </c>
       <c r="K26" t="n">
-        <v>2.43648540693244e-13</v>
+        <v>8.195252635255704e-11</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9965836075742324</v>
+        <v>0.68757369380851</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1759,41 +1759,41 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG481.fasta</t>
+          <t>RUG510.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0002275849178927226</v>
+        <v>0.000781207083150954</v>
       </c>
       <c r="C27" t="n">
-        <v>1.033682876905045e-08</v>
+        <v>1.921124583251586e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>4.055812278098524e-14</v>
+        <v>8.222009770938653e-11</v>
       </c>
       <c r="E27" t="n">
-        <v>4.055812278098519e-14</v>
+        <v>8.222009770938605e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9724949664714715</v>
+        <v>0.9649715699634486</v>
       </c>
       <c r="G27" t="n">
-        <v>1.110529505405947e-05</v>
+        <v>0.0006823235658482603</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02726633297855019</v>
+        <v>0.03356297785186841</v>
       </c>
       <c r="I27" t="n">
-        <v>4.055812278098515e-14</v>
+        <v>8.22200977093864e-11</v>
       </c>
       <c r="J27" t="n">
-        <v>4.055812278098509e-14</v>
+        <v>8.222009770938597e-11</v>
       </c>
       <c r="K27" t="n">
-        <v>4.055812278098521e-14</v>
+        <v>8.222009770938649e-11</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9724949664714715</v>
+        <v>0.9649715699634486</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1809,41 +1809,41 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG487.fasta</t>
+          <t>RUG523.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.190114654352425e-05</v>
+        <v>6.559071634904047e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001320880544698002</v>
+        <v>0.02259565829216982</v>
       </c>
       <c r="D28" t="n">
-        <v>1.433781044853697e-12</v>
+        <v>6.212696212381698e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>1.433781044853693e-12</v>
+        <v>6.21269621238169e-12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8406817706644435</v>
+        <v>0.8216644340336053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1564507075373984</v>
+        <v>0.1516352465666403</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0015247400997476</v>
+        <v>0.004039070360172365</v>
       </c>
       <c r="I28" t="n">
-        <v>1.433781044853693e-12</v>
+        <v>6.212696212381672e-12</v>
       </c>
       <c r="J28" t="n">
-        <v>1.433781044853693e-12</v>
+        <v>6.212696212381667e-12</v>
       </c>
       <c r="K28" t="n">
-        <v>1.433781044853692e-12</v>
+        <v>6.212696212381692e-12</v>
       </c>
       <c r="L28" t="n">
-        <v>0.8406817706644435</v>
+        <v>0.8216644340336053</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1859,41 +1859,41 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RUG489.fasta</t>
+          <t>RUG528.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07963367186759586</v>
+        <v>8.136483842687108e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000183594900928888</v>
+        <v>0.1244042413544322</v>
       </c>
       <c r="D29" t="n">
-        <v>8.195252635255699e-11</v>
+        <v>3.033634608039192e-11</v>
       </c>
       <c r="E29" t="n">
-        <v>8.195252635255688e-11</v>
+        <v>3.033634608039184e-11</v>
       </c>
       <c r="F29" t="n">
-        <v>0.68757369380851</v>
+        <v>0.8755690345342784</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02930781057996714</v>
+        <v>4.973292186351238e-09</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2033012284332355</v>
+        <v>1.858250247264254e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>8.195252635255709e-11</v>
+        <v>3.033634608039074e-11</v>
       </c>
       <c r="J29" t="n">
-        <v>8.195252635255695e-11</v>
+        <v>3.033634608039072e-11</v>
       </c>
       <c r="K29" t="n">
-        <v>8.195252635255704e-11</v>
+        <v>3.033634608039071e-11</v>
       </c>
       <c r="L29" t="n">
-        <v>0.68757369380851</v>
+        <v>0.8755690345342784</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1909,41 +1909,41 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>RUG510.fasta</t>
+          <t>RUG544.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.000781207083150954</v>
+        <v>0.01364966974493809</v>
       </c>
       <c r="C30" t="n">
-        <v>1.921124583251586e-06</v>
+        <v>1.878318218449033e-09</v>
       </c>
       <c r="D30" t="n">
-        <v>8.222009770938653e-11</v>
+        <v>2.219990575510811e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>8.222009770938605e-11</v>
+        <v>2.219990575510811e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9649715699634486</v>
+        <v>0.9863503283765611</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0006823235658482603</v>
+        <v>2.219990575510811e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03356297785186841</v>
+        <v>4.920443267355778e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>8.22200977093864e-11</v>
+        <v>2.219990575510811e-14</v>
       </c>
       <c r="J30" t="n">
-        <v>8.222009770938597e-11</v>
+        <v>2.219990575510811e-14</v>
       </c>
       <c r="K30" t="n">
-        <v>8.222009770938649e-11</v>
+        <v>2.219990575510811e-14</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9649715699634486</v>
+        <v>0.9863503283765611</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1959,41 +1959,41 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RUG523.fasta</t>
+          <t>RUG553.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.559071634904047e-05</v>
+        <v>0.000184483142965898</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02259565829216982</v>
+        <v>1.624718219684497e-08</v>
       </c>
       <c r="D31" t="n">
-        <v>6.212696212381698e-12</v>
+        <v>6.600322842701721e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>6.21269621238169e-12</v>
+        <v>6.600322842701687e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8216644340336053</v>
+        <v>0.9869359079793865</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1516352465666403</v>
+        <v>0.00580650226906473</v>
       </c>
       <c r="H31" t="n">
-        <v>0.004039070360172365</v>
+        <v>0.007073090358100506</v>
       </c>
       <c r="I31" t="n">
-        <v>6.212696212381672e-12</v>
+        <v>6.600322842700654e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>6.212696212381667e-12</v>
+        <v>6.600322842700636e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>6.212696212381692e-12</v>
+        <v>6.600322842700635e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8216644340336053</v>
+        <v>0.9869359079793865</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2009,41 +2009,41 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>RUG528.fasta</t>
+          <t>RUG564.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.136483842687108e-06</v>
+        <v>0.0002257220674059084</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1244042413544322</v>
+        <v>1.125642477508947e-08</v>
       </c>
       <c r="D32" t="n">
-        <v>3.033634608039192e-11</v>
+        <v>4.387471214418363e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>3.033634608039184e-11</v>
+        <v>4.387471214418356e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8755690345342784</v>
+        <v>0.9739764861947077</v>
       </c>
       <c r="G32" t="n">
-        <v>4.973292186351238e-09</v>
+        <v>1.345505987298393e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>1.858250247264254e-05</v>
+        <v>0.02578432542136927</v>
       </c>
       <c r="I32" t="n">
-        <v>3.033634608039074e-11</v>
+        <v>4.38747121441835e-14</v>
       </c>
       <c r="J32" t="n">
-        <v>3.033634608039072e-11</v>
+        <v>4.387471214418343e-14</v>
       </c>
       <c r="K32" t="n">
-        <v>3.033634608039071e-11</v>
+        <v>4.387471214418356e-14</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8755690345342784</v>
+        <v>0.9739764861947077</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2059,41 +2059,41 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>RUG544.fasta</t>
+          <t>RUG583.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01364966974493809</v>
+        <v>0.0001374808706742804</v>
       </c>
       <c r="C33" t="n">
-        <v>1.878318218449033e-09</v>
+        <v>0.3530121940340992</v>
       </c>
       <c r="D33" t="n">
-        <v>2.219990575510811e-14</v>
+        <v>1.843580106886993e-11</v>
       </c>
       <c r="E33" t="n">
-        <v>2.219990575510811e-14</v>
+        <v>1.843580106886989e-11</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9863503283765611</v>
+        <v>0.5457016724708713</v>
       </c>
       <c r="G33" t="n">
-        <v>2.219990575510811e-14</v>
+        <v>0.09420167022873847</v>
       </c>
       <c r="H33" t="n">
-        <v>4.920443267355778e-14</v>
+        <v>0.006946982303437482</v>
       </c>
       <c r="I33" t="n">
-        <v>2.219990575510811e-14</v>
+        <v>1.843580106886987e-11</v>
       </c>
       <c r="J33" t="n">
-        <v>2.219990575510811e-14</v>
+        <v>1.843580106886987e-11</v>
       </c>
       <c r="K33" t="n">
-        <v>2.219990575510811e-14</v>
+        <v>1.843580106886986e-11</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9863503283765611</v>
+        <v>0.5457016724708713</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2102,48 +2102,48 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>g__RC9</t>
+          <t>g__RC9(reject)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>RUG553.fasta</t>
+          <t>RUG590.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000184483142965898</v>
+        <v>7.171180359310458e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.624718219684497e-08</v>
+        <v>0.01424036633887689</v>
       </c>
       <c r="D34" t="n">
-        <v>6.600322842701721e-13</v>
+        <v>5.285058761697464e-12</v>
       </c>
       <c r="E34" t="n">
-        <v>6.600322842701687e-13</v>
+        <v>5.285058761697463e-12</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9869359079793865</v>
+        <v>0.8575627778808295</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00580650226906473</v>
+        <v>0.1252220337281773</v>
       </c>
       <c r="H34" t="n">
-        <v>0.007073090358100506</v>
+        <v>0.002903110222097774</v>
       </c>
       <c r="I34" t="n">
-        <v>6.600322842700654e-13</v>
+        <v>5.285058761697471e-12</v>
       </c>
       <c r="J34" t="n">
-        <v>6.600322842700636e-13</v>
+        <v>5.285058761697457e-12</v>
       </c>
       <c r="K34" t="n">
-        <v>6.600322842700635e-13</v>
+        <v>5.285058761697462e-12</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9869359079793865</v>
+        <v>0.8575627778808295</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2159,41 +2159,41 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RUG564.fasta</t>
+          <t>RUG603.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0002257220674059084</v>
+        <v>0.02132429065650636</v>
       </c>
       <c r="C35" t="n">
-        <v>1.125642477508947e-08</v>
+        <v>0.05146786759148202</v>
       </c>
       <c r="D35" t="n">
-        <v>4.387471214418363e-14</v>
+        <v>1.177599873045703e-10</v>
       </c>
       <c r="E35" t="n">
-        <v>4.387471214418356e-14</v>
+        <v>1.177599873045702e-10</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9739764861947077</v>
+        <v>0.9244627072510722</v>
       </c>
       <c r="G35" t="n">
-        <v>1.345505987298393e-05</v>
+        <v>5.320462907557363e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02578432542136927</v>
+        <v>0.002691929283064163</v>
       </c>
       <c r="I35" t="n">
-        <v>4.38747121441835e-14</v>
+        <v>1.177599873045703e-10</v>
       </c>
       <c r="J35" t="n">
-        <v>4.387471214418343e-14</v>
+        <v>1.1775998730457e-10</v>
       </c>
       <c r="K35" t="n">
-        <v>4.387471214418356e-14</v>
+        <v>1.177599873045702e-10</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9739764861947077</v>
+        <v>0.9244627072510722</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2209,41 +2209,41 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG583.fasta</t>
+          <t>RUG615.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0001374808706742804</v>
+        <v>5.327382352801727e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3530121940340992</v>
+        <v>3.753585835566067e-09</v>
       </c>
       <c r="D36" t="n">
-        <v>1.843580106886993e-11</v>
+        <v>3.079372785670594e-13</v>
       </c>
       <c r="E36" t="n">
-        <v>1.843580106886989e-11</v>
+        <v>3.079372785670575e-13</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5457016724708713</v>
+        <v>0.9968367421153504</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09420167022873847</v>
+        <v>0.001553182333038716</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006946982303437482</v>
+        <v>0.001556797972957243</v>
       </c>
       <c r="I36" t="n">
-        <v>1.843580106886987e-11</v>
+        <v>3.079372785670557e-13</v>
       </c>
       <c r="J36" t="n">
-        <v>1.843580106886987e-11</v>
+        <v>3.07937278567053e-13</v>
       </c>
       <c r="K36" t="n">
-        <v>1.843580106886986e-11</v>
+        <v>3.079372785670552e-13</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5457016724708713</v>
+        <v>0.9968367421153504</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>g__RC9(reject)</t>
+          <t>g__RC9</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG590.fasta</t>
+          <t>RUG619.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.171180359310458e-05</v>
+        <v>4.40532537627874e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01424036633887689</v>
+        <v>0.03261030597509806</v>
       </c>
       <c r="D37" t="n">
-        <v>5.285058761697464e-12</v>
+        <v>1.202729818860665e-11</v>
       </c>
       <c r="E37" t="n">
-        <v>5.285058761697463e-12</v>
+        <v>1.202729818860664e-11</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8575627778808295</v>
+        <v>0.7829884648337998</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1252220337281773</v>
+        <v>0.1755930456592194</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002903110222097774</v>
+        <v>0.008764130217983251</v>
       </c>
       <c r="I37" t="n">
-        <v>5.285058761697471e-12</v>
+        <v>1.20272981886066e-11</v>
       </c>
       <c r="J37" t="n">
-        <v>5.285058761697457e-12</v>
+        <v>1.202729818860659e-11</v>
       </c>
       <c r="K37" t="n">
-        <v>5.285058761697462e-12</v>
+        <v>1.20272981886066e-11</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8575627778808295</v>
+        <v>0.7829884648337998</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2309,41 +2309,41 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RUG603.fasta</t>
+          <t>RUG625.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02132429065650636</v>
+        <v>3.957281989759875e-06</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05146786759148202</v>
+        <v>0.2887970010330121</v>
       </c>
       <c r="D38" t="n">
-        <v>1.177599873045703e-10</v>
+        <v>1.413780739663858e-12</v>
       </c>
       <c r="E38" t="n">
-        <v>1.177599873045702e-10</v>
+        <v>1.413780739663858e-12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9244627072510722</v>
+        <v>0.4373955335023111</v>
       </c>
       <c r="G38" t="n">
-        <v>5.320462907557363e-05</v>
+        <v>0.2721682268637877</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002691929283064163</v>
+        <v>0.001635281311830193</v>
       </c>
       <c r="I38" t="n">
-        <v>1.177599873045703e-10</v>
+        <v>1.413780739663858e-12</v>
       </c>
       <c r="J38" t="n">
-        <v>1.1775998730457e-10</v>
+        <v>1.413780739663858e-12</v>
       </c>
       <c r="K38" t="n">
-        <v>1.177599873045702e-10</v>
+        <v>1.413780739663857e-12</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9244627072510722</v>
+        <v>0.4373955335023111</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2352,48 +2352,48 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>g__RC9</t>
+          <t>g__RC9(reject)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RUG615.fasta</t>
+          <t>RUG629.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.327382352801727e-05</v>
+        <v>0.001058675421574715</v>
       </c>
       <c r="C39" t="n">
-        <v>3.753585835566067e-09</v>
+        <v>0.001058045286014033</v>
       </c>
       <c r="D39" t="n">
-        <v>3.079372785670594e-13</v>
+        <v>0.00105804523350985</v>
       </c>
       <c r="E39" t="n">
-        <v>3.079372785670575e-13</v>
+        <v>0.00105804523350984</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9968367421153504</v>
+        <v>0.9904449453029701</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001553182333038716</v>
+        <v>0.001075277881701197</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001556797972957243</v>
+        <v>0.001072829940191056</v>
       </c>
       <c r="I39" t="n">
-        <v>3.079372785670557e-13</v>
+        <v>0.001058045233509648</v>
       </c>
       <c r="J39" t="n">
-        <v>3.07937278567053e-13</v>
+        <v>0.001058045233509639</v>
       </c>
       <c r="K39" t="n">
-        <v>3.079372785670552e-13</v>
+        <v>0.001058045233509643</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9968367421153504</v>
+        <v>0.9904449453029701</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2409,41 +2409,41 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>RUG616.fasta</t>
+          <t>RUG634.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.008710334692705128</v>
+        <v>0.0001756095268099077</v>
       </c>
       <c r="C40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>2.148243950138611e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>6.153181990316274e-12</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>6.153181990316223e-12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9912896653071172</v>
+        <v>0.9818316405972196</v>
       </c>
       <c r="G40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>0.01673109604746896</v>
       </c>
       <c r="H40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>0.001240171358234287</v>
       </c>
       <c r="I40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>6.153181990316218e-12</v>
       </c>
       <c r="J40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>6.153181990316203e-12</v>
       </c>
       <c r="K40" t="n">
-        <v>2.219987553276856e-14</v>
+        <v>6.153181990316219e-12</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9912896653071172</v>
+        <v>0.9818316405972196</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2459,41 +2459,41 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>RUG619.fasta</t>
+          <t>RUG667.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.40532537627874e-05</v>
+        <v>0.0001403485440821086</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03261030597509806</v>
+        <v>0.0278272878180651</v>
       </c>
       <c r="D41" t="n">
-        <v>1.202729818860665e-11</v>
+        <v>8.75381820556407e-12</v>
       </c>
       <c r="E41" t="n">
-        <v>1.202729818860664e-11</v>
+        <v>8.753818205564068e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7829884648337998</v>
+        <v>0.7900436532348996</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1755930456592194</v>
+        <v>0.1740681147330442</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008764130217983251</v>
+        <v>0.007920595626140069</v>
       </c>
       <c r="I41" t="n">
-        <v>1.20272981886066e-11</v>
+        <v>8.753818205563854e-12</v>
       </c>
       <c r="J41" t="n">
-        <v>1.202729818860659e-11</v>
+        <v>8.753818205563839e-12</v>
       </c>
       <c r="K41" t="n">
-        <v>1.20272981886066e-11</v>
+        <v>8.753818205563855e-12</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7829884648337998</v>
+        <v>0.7900436532348996</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2509,41 +2509,41 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>RUG625.fasta</t>
+          <t>RUG679.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.957281989759875e-06</v>
+        <v>0.006425509735559636</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2887970010330121</v>
+        <v>0.07280434264876486</v>
       </c>
       <c r="D42" t="n">
-        <v>1.413780739663858e-12</v>
+        <v>7.906420530404497e-10</v>
       </c>
       <c r="E42" t="n">
-        <v>1.413780739663858e-12</v>
+        <v>7.906420530404478e-10</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4373955335023111</v>
+        <v>0.8129081684473308</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2721682268637877</v>
+        <v>0.006270667431092077</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001635281311830193</v>
+        <v>0.1015913077840423</v>
       </c>
       <c r="I42" t="n">
-        <v>1.413780739663858e-12</v>
+        <v>7.906420530404492e-10</v>
       </c>
       <c r="J42" t="n">
-        <v>1.413780739663858e-12</v>
+        <v>7.906420530404475e-10</v>
       </c>
       <c r="K42" t="n">
-        <v>1.413780739663857e-12</v>
+        <v>7.906420530404483e-10</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4373955335023111</v>
+        <v>0.8129081684473308</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2552,48 +2552,48 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>g__RC9(reject)</t>
+          <t>g__RC9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>RUG629.fasta</t>
+          <t>RUG717.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001058675421574715</v>
+        <v>4.59255797165609e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001058045286014033</v>
+        <v>0.3277252032363202</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00105804523350985</v>
+        <v>2.504870242308824e-12</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00105804523350984</v>
+        <v>2.504870242308824e-12</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9904449453029701</v>
+        <v>0.4336620767555809</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001075277881701197</v>
+        <v>0.2368742483072781</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001072829940191056</v>
+        <v>0.001733879130324909</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001058045233509648</v>
+        <v>2.504870242308824e-12</v>
       </c>
       <c r="J43" t="n">
-        <v>0.001058045233509639</v>
+        <v>2.504870242308822e-12</v>
       </c>
       <c r="K43" t="n">
-        <v>0.001058045233509643</v>
+        <v>2.504870242308822e-12</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9904449453029701</v>
+        <v>0.4336620767555809</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2602,48 +2602,48 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>g__RC9</t>
+          <t>g__RC9(reject)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RUG634.fasta</t>
+          <t>RUG720.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0001756095268099077</v>
+        <v>0.0001939031371980691</v>
       </c>
       <c r="C44" t="n">
-        <v>2.148243950138611e-05</v>
+        <v>2.088858277936495e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>6.153181990316274e-12</v>
+        <v>4.764740189624898e-12</v>
       </c>
       <c r="E44" t="n">
-        <v>6.153181990316223e-12</v>
+        <v>4.764740189624887e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9818316405972196</v>
+        <v>0.9730176791021307</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01673109604746896</v>
+        <v>0.02530311535188359</v>
       </c>
       <c r="H44" t="n">
-        <v>0.001240171358234287</v>
+        <v>0.001464413802184726</v>
       </c>
       <c r="I44" t="n">
-        <v>6.153181990316218e-12</v>
+        <v>4.764740189624903e-12</v>
       </c>
       <c r="J44" t="n">
-        <v>6.153181990316203e-12</v>
+        <v>4.76474018962489e-12</v>
       </c>
       <c r="K44" t="n">
-        <v>6.153181990316219e-12</v>
+        <v>4.764740189624907e-12</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9818316405972196</v>
+        <v>0.9730176791021307</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2659,41 +2659,41 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>RUG650.fasta</t>
+          <t>RUG722.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.06004340741253182</v>
+        <v>3.520383251942973e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>4.852490089249409e-10</v>
+        <v>2.018121750964506e-09</v>
       </c>
       <c r="D45" t="n">
-        <v>2.736581170651306e-11</v>
+        <v>2.301667786974855e-13</v>
       </c>
       <c r="E45" t="n">
-        <v>2.736581170651302e-11</v>
+        <v>2.301667786974833e-13</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9399565782474052</v>
+        <v>0.9978426783366492</v>
       </c>
       <c r="G45" t="n">
-        <v>2.736581170651318e-11</v>
+        <v>0.0008953126965685003</v>
       </c>
       <c r="H45" t="n">
-        <v>1.369061928791977e-08</v>
+        <v>0.001226803114990202</v>
       </c>
       <c r="I45" t="n">
-        <v>2.736581170651318e-11</v>
+        <v>2.301667786974841e-13</v>
       </c>
       <c r="J45" t="n">
-        <v>2.736581170651312e-11</v>
+        <v>2.301667786974822e-13</v>
       </c>
       <c r="K45" t="n">
-        <v>2.736581170651316e-11</v>
+        <v>2.301667786974843e-13</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9399565782474052</v>
+        <v>0.9978426783366492</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2709,41 +2709,41 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>RUG652.fasta</t>
+          <t>RUG754.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06624520369248278</v>
+        <v>3.478848418759349e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5.33681697388289e-10</v>
+        <v>6.145360393796604e-08</v>
       </c>
       <c r="D46" t="n">
-        <v>3.036860108605822e-11</v>
+        <v>0.1858733021666876</v>
       </c>
       <c r="E46" t="n">
-        <v>3.036860108605817e-11</v>
+        <v>7.492211841903243e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9337547789901183</v>
+        <v>0.8006598686704304</v>
       </c>
       <c r="G46" t="n">
-        <v>3.036860108605815e-11</v>
+        <v>0.0005165005392827638</v>
       </c>
       <c r="H46" t="n">
-        <v>1.660150561140496e-08</v>
+        <v>0.01291547868550781</v>
       </c>
       <c r="I46" t="n">
-        <v>3.036860108605806e-11</v>
+        <v>7.492211841903243e-14</v>
       </c>
       <c r="J46" t="n">
-        <v>3.036860108605804e-11</v>
+        <v>7.492211841903243e-14</v>
       </c>
       <c r="K46" t="n">
-        <v>3.036860108605815e-11</v>
+        <v>7.492211841903241e-14</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9337547789901183</v>
+        <v>0.8006598686704304</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2759,41 +2759,41 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>RUG661.fasta</t>
+          <t>RUG773.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.05653410542775836</v>
+        <v>4.028525817257212e-06</v>
       </c>
       <c r="C47" t="n">
-        <v>4.153545581239128e-09</v>
+        <v>0.3109093978994269</v>
       </c>
       <c r="D47" t="n">
-        <v>5.776932286286762e-11</v>
+        <v>2.222801221632005e-12</v>
       </c>
       <c r="E47" t="n">
-        <v>5.776932286286745e-11</v>
+        <v>2.222801221632004e-12</v>
       </c>
       <c r="F47" t="n">
-        <v>0.943465790636722</v>
+        <v>0.4481458211158442</v>
       </c>
       <c r="G47" t="n">
-        <v>5.776932286286758e-11</v>
+        <v>0.2391708043946148</v>
       </c>
       <c r="H47" t="n">
-        <v>9.943535832604875e-08</v>
+        <v>0.001769948053182692</v>
       </c>
       <c r="I47" t="n">
-        <v>5.776932286286752e-11</v>
+        <v>2.222801221632003e-12</v>
       </c>
       <c r="J47" t="n">
-        <v>5.776932286286749e-11</v>
+        <v>2.222801221632003e-12</v>
       </c>
       <c r="K47" t="n">
-        <v>5.776932286286758e-11</v>
+        <v>2.222801221632005e-12</v>
       </c>
       <c r="L47" t="n">
-        <v>0.943465790636722</v>
+        <v>0.4481458211158442</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2802,48 +2802,48 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>g__RC9</t>
+          <t>g__RC9(reject)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>RUG667.fasta</t>
+          <t>RUG784.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0001403485440821086</v>
+        <v>0.0002875812061601995</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0278272878180651</v>
+        <v>7.628939181246265e-08</v>
       </c>
       <c r="D48" t="n">
-        <v>8.75381820556407e-12</v>
+        <v>6.937221621362839e-13</v>
       </c>
       <c r="E48" t="n">
-        <v>8.753818205564068e-12</v>
+        <v>6.937221621362827e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7900436532348996</v>
+        <v>0.9761597453528872</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1740681147330442</v>
+        <v>0.0124657797719774</v>
       </c>
       <c r="H48" t="n">
-        <v>0.007920595626140069</v>
+        <v>0.01108681737611498</v>
       </c>
       <c r="I48" t="n">
-        <v>8.753818205563854e-12</v>
+        <v>6.93722162136285e-13</v>
       </c>
       <c r="J48" t="n">
-        <v>8.753818205563839e-12</v>
+        <v>6.937221621362825e-13</v>
       </c>
       <c r="K48" t="n">
-        <v>8.753818205563855e-12</v>
+        <v>6.937221621362861e-13</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7900436532348996</v>
+        <v>0.9761597453528872</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2859,41 +2859,41 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>RUG679.fasta</t>
+          <t>RUG790.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006425509735559636</v>
+        <v>0.0006778436494396689</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07280434264876486</v>
+        <v>2.300342203086984e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>7.906420530404497e-10</v>
+        <v>9.35824094963699e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>7.906420530404478e-10</v>
+        <v>9.358240949636964e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8129081684473308</v>
+        <v>0.9852994969044587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.006270667431092077</v>
+        <v>0.001239020701024198</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1015913077840423</v>
+        <v>0.0127834087103892</v>
       </c>
       <c r="I49" t="n">
-        <v>7.906420530404492e-10</v>
+        <v>9.358240949636966e-14</v>
       </c>
       <c r="J49" t="n">
-        <v>7.906420530404475e-10</v>
+        <v>9.358240949636931e-14</v>
       </c>
       <c r="K49" t="n">
-        <v>7.906420530404483e-10</v>
+        <v>9.358240949636965e-14</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8129081684473308</v>
+        <v>0.9852994969044587</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2909,41 +2909,41 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>RUG717.fasta</t>
+          <t>RUG818.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.59255797165609e-06</v>
+        <v>1.727567684180694e-06</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3277252032363202</v>
+        <v>6.330771074030291e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>2.504870242308824e-12</v>
+        <v>3.612094068519518e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>2.504870242308824e-12</v>
+        <v>3.612094068519478e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4336620767555809</v>
+        <v>0.9999349641584598</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2368742483072781</v>
+        <v>3.612094068530744e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001733879130324909</v>
+        <v>5.628991600354439e-10</v>
       </c>
       <c r="I50" t="n">
-        <v>2.504870242308824e-12</v>
+        <v>3.612094068518695e-14</v>
       </c>
       <c r="J50" t="n">
-        <v>2.504870242308822e-12</v>
+        <v>3.612094068518665e-14</v>
       </c>
       <c r="K50" t="n">
-        <v>2.504870242308822e-12</v>
+        <v>3.612094068518707e-14</v>
       </c>
       <c r="L50" t="n">
-        <v>0.4336620767555809</v>
+        <v>0.9999349641584598</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -2952,48 +2952,48 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>g__RC9(reject)</t>
+          <t>g__RC9</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>RUG722.fasta</t>
+          <t>RUG826.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.520383251942973e-05</v>
+        <v>4.614795397864958e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>2.018121750964506e-09</v>
+        <v>0.01669638479813708</v>
       </c>
       <c r="D51" t="n">
-        <v>2.301667786974855e-13</v>
+        <v>5.7536479852691e-12</v>
       </c>
       <c r="E51" t="n">
-        <v>2.301667786974833e-13</v>
+        <v>5.753647985269088e-12</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9978426783366492</v>
+        <v>0.8955851945704171</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0008953126965685003</v>
+        <v>0.08588600425203217</v>
       </c>
       <c r="H51" t="n">
-        <v>0.001226803114990202</v>
+        <v>0.001786268396666733</v>
       </c>
       <c r="I51" t="n">
-        <v>2.301667786974841e-13</v>
+        <v>5.753647985269105e-12</v>
       </c>
       <c r="J51" t="n">
-        <v>2.301667786974822e-13</v>
+        <v>5.753647985269099e-12</v>
       </c>
       <c r="K51" t="n">
-        <v>2.301667786974843e-13</v>
+        <v>5.753647985269104e-12</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9978426783366492</v>
+        <v>0.8955851945704171</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3009,41 +3009,41 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>RUG754.fasta</t>
+          <t>hRUG873.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.478848418759349e-05</v>
+        <v>0.0002398212919255555</v>
       </c>
       <c r="C52" t="n">
-        <v>6.145360393796604e-08</v>
+        <v>3.524589530073179e-08</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1858733021666876</v>
+        <v>3.261744371003885e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>7.492211841903243e-14</v>
+        <v>3.261744371003874e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8006598686704304</v>
+        <v>0.9711011755058715</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0005165005392827638</v>
+        <v>9.255018323465258e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01291547868550781</v>
+        <v>0.02864971293782094</v>
       </c>
       <c r="I52" t="n">
-        <v>7.492211841903243e-14</v>
+        <v>3.261744371003755e-14</v>
       </c>
       <c r="J52" t="n">
-        <v>7.492211841903243e-14</v>
+        <v>3.261744371003749e-14</v>
       </c>
       <c r="K52" t="n">
-        <v>7.492211841903241e-14</v>
+        <v>3.261744371003757e-14</v>
       </c>
       <c r="L52" t="n">
-        <v>0.8006598686704304</v>
+        <v>0.9711011755058715</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3059,41 +3059,41 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>RUG773.fasta</t>
+          <t>hRUG881.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.028525817257212e-06</v>
+        <v>0.0008977695826319157</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3109093978994269</v>
+        <v>2.834534251499316e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>2.222801221632005e-12</v>
+        <v>1.037002598872856e-12</v>
       </c>
       <c r="E53" t="n">
-        <v>2.222801221632004e-12</v>
+        <v>1.037002598872855e-12</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4481458211158442</v>
+        <v>0.8681959604069979</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2391708043946148</v>
+        <v>0.08289109546412823</v>
       </c>
       <c r="H53" t="n">
-        <v>0.001769948053182692</v>
+        <v>0.0479868291985422</v>
       </c>
       <c r="I53" t="n">
-        <v>2.222801221632003e-12</v>
+        <v>1.037002598872857e-12</v>
       </c>
       <c r="J53" t="n">
-        <v>2.222801221632003e-12</v>
+        <v>1.037002598872856e-12</v>
       </c>
       <c r="K53" t="n">
-        <v>2.222801221632005e-12</v>
+        <v>1.037002598872858e-12</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4481458211158442</v>
+        <v>0.8681959604069979</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3102,48 +3102,48 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>g__RC9(reject)</t>
+          <t>g__RC9</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>RUG784.fasta</t>
+          <t>hRUG909.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0002875812061601995</v>
+        <v>0.009931689182900565</v>
       </c>
       <c r="C54" t="n">
-        <v>7.628939181246265e-08</v>
+        <v>0.0001363693877835882</v>
       </c>
       <c r="D54" t="n">
-        <v>6.937221621362839e-13</v>
+        <v>7.781158064199499e-13</v>
       </c>
       <c r="E54" t="n">
-        <v>6.937221621362827e-13</v>
+        <v>7.781158064199498e-13</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9761597453528872</v>
+        <v>0.8767827500144401</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0124657797719774</v>
+        <v>0.01787848950365762</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01108681737611498</v>
+        <v>0.09527070190732793</v>
       </c>
       <c r="I54" t="n">
-        <v>6.93722162136285e-13</v>
+        <v>7.781158064199493e-13</v>
       </c>
       <c r="J54" t="n">
-        <v>6.937221621362825e-13</v>
+        <v>7.78115806419949e-13</v>
       </c>
       <c r="K54" t="n">
-        <v>6.937221621362861e-13</v>
+        <v>7.781158064199497e-13</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9761597453528872</v>
+        <v>0.8767827500144401</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3151,706 +3151,6 @@
         </is>
       </c>
       <c r="N54" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>RUG790.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.0006778436494396689</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2.300342203086984e-07</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9.35824094963699e-14</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.358240949636964e-14</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.9852994969044587</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.001239020701024198</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.0127834087103892</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9.358240949636966e-14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>9.358240949636931e-14</v>
-      </c>
-      <c r="K55" t="n">
-        <v>9.358240949636965e-14</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.9852994969044587</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>RUG808.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.06323340353124782</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1.369959967287475e-09</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3.767242078851627e-11</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3.767242078851613e-11</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.9367665529713342</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.767242078851621e-11</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4.190142332651055e-08</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.767242078851621e-11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.767242078851599e-11</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.767242078851612e-11</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.9367665529713342</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>RUG818.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1.727567684180694e-06</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.330771074030291e-05</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.612094068519518e-14</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3.612094068519478e-14</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.9999349641584598</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3.612094068530744e-14</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5.628991600354439e-10</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.612094068518695e-14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.612094068518665e-14</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.612094068518707e-14</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.9999349641584598</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>RUG826.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4.614795397864958e-05</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.01669638479813708</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5.7536479852691e-12</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5.753647985269088e-12</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.8955851945704171</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.08588600425203217</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.001786268396666733</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.753647985269105e-12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5.753647985269099e-12</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.753647985269104e-12</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.8955851945704171</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>hRUG873.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.0002398212919255555</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.524589530073179e-08</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3.261744371003885e-14</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3.261744371003874e-14</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.9711011755058715</v>
-      </c>
-      <c r="G59" t="n">
-        <v>9.255018323465258e-06</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.02864971293782094</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.261744371003755e-14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.261744371003749e-14</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.261744371003757e-14</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.9711011755058715</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>hRUG881.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.0008977695826319157</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.834534251499316e-05</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.037002598872856e-12</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1.037002598872855e-12</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.8681959604069979</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.08289109546412823</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.0479868291985422</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.037002598872857e-12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.037002598872856e-12</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1.037002598872858e-12</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.8681959604069979</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>hRUG909.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.009931689182900565</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.0001363693877835882</v>
-      </c>
-      <c r="D61" t="n">
-        <v>7.781158064199499e-13</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7.781158064199498e-13</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.8767827500144401</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.01787848950365762</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.09527070190732793</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7.781158064199493e-13</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7.78115806419949e-13</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7.781158064199497e-13</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.8767827500144401</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>RUG808.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.04085301354930693</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.700925964620091e-12</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4.468424053068396e-12</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.468424053068381e-12</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.9591469859847483</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4.468424053068387e-12</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4.344332297929883e-10</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.468424053068387e-12</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4.468424053068372e-12</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4.468424053068401e-12</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.9591469859847483</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>RUG818.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>6.18280196929999e-07</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.001403315572185595</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.403046358349133e-13</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.403046358349121e-13</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.9985959383829347</v>
-      </c>
-      <c r="G63" t="n">
-        <v>9.809002490309127e-10</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.267830809540493e-07</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.403046358349123e-13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.40304635834911e-13</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1.40304635834912e-13</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.9985959383829347</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>RUG826.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>5.395055843460351e-05</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.01187467827406984</v>
-      </c>
-      <c r="D64" t="n">
-        <v>9.24640141383141e-12</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.246401413831336e-12</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.944876990348696</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.04140924276010192</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.001785138012465481</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9.246401413831339e-12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>9.246401413831307e-12</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.246401413831304e-12</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.944876990348696</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>hRUG867.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.02528922150904173</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7.949613179324549e-07</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2.694068389929067e-12</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2.694068389929063e-12</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.6792335051974113</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.0627515117066868</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.2327249666120717</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.694068389929063e-12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.694068389929063e-12</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2.694068389929065e-12</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.6792335051974113</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>hRUG873.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.0001817578527604743</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.79207013434243e-08</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2.256871858920649e-14</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2.256871858920646e-14</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.9742334433149596</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5.291848373733051e-06</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.02557947906309205</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.256871858920644e-14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.256871858920642e-14</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2.256871858920642e-14</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.9742334433149596</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>hRUG881.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.000463252618741762</v>
-      </c>
-      <c r="C67" t="n">
-        <v>5.820737950100567e-06</v>
-      </c>
-      <c r="D67" t="n">
-        <v>8.9954878939541e-13</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8.995487893954097e-13</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.9097125514627539</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.05360925792008356</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.03620911725597322</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8.995487893953878e-13</v>
-      </c>
-      <c r="J67" t="n">
-        <v>8.99548789395387e-13</v>
-      </c>
-      <c r="K67" t="n">
-        <v>8.995487893953882e-13</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.9097125514627539</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>hRUG909.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.00160416512903424</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3.971372390521263e-05</v>
-      </c>
-      <c r="D68" t="n">
-        <v>5.030281414420197e-13</v>
-      </c>
-      <c r="E68" t="n">
-        <v>5.030281414420187e-13</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.9218595767543656</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.02325075978319079</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.05324578460698941</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.030281414420195e-13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.030281414420181e-13</v>
-      </c>
-      <c r="K68" t="n">
-        <v>5.030281414420197e-13</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.9218595767543656</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>g__RC9</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
         <is>
           <t>g__RC9</t>
         </is>
